--- a/Final Scripts/main2.xlsx
+++ b/Final Scripts/main2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14138DA-C381-409D-8593-4811F175B889}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB0663-3CDB-425F-B5A8-3E2EA442DEBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1987,15 +1987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163023</xdr:colOff>
+      <xdr:colOff>78157</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:rowOff>47020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>196103</xdr:colOff>
+      <xdr:colOff>229721</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>117662</xdr:rowOff>
+      <xdr:rowOff>108945</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2010,10 +2010,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="163023" y="291353"/>
-          <a:ext cx="8482315" cy="3591485"/>
-          <a:chOff x="1707022" y="1070300"/>
-          <a:chExt cx="7382985" cy="3288750"/>
+          <a:off x="78157" y="226314"/>
+          <a:ext cx="8600799" cy="3647807"/>
+          <a:chOff x="1633156" y="1010742"/>
+          <a:chExt cx="7486111" cy="3340325"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -2028,7 +2028,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="1954587" y="1070300"/>
+          <a:off x="1983847" y="1065169"/>
           <a:ext cx="7135420" cy="3053464"/>
         </xdr:xfrm>
         <a:graphic>
@@ -2050,8 +2050,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3283325" y="4101351"/>
-            <a:ext cx="4677307" cy="257699"/>
+            <a:off x="4873157" y="4101351"/>
+            <a:ext cx="1464845" cy="249716"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2083,7 +2083,14 @@
                 <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Minimum number of genes to share a common short peptide (of length 10)</a:t>
+              <a:t>x = number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> of proteins</a:t>
             </a:r>
             <a:endParaRPr lang="ro-RO" sz="1200">
               <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2105,8 +2112,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="1235211" y="2426020"/>
-            <a:ext cx="1190217" cy="246596"/>
+            <a:off x="291757" y="2352141"/>
+            <a:ext cx="3077151" cy="394353"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2133,12 +2140,27 @@
           </a:bodyPr>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1200">
                 <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Number of genes</a:t>
+              <a:t>y = number of proteins that share a peptide with</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" baseline="0">
+              <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0">
+                <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>at least x other proteins</a:t>
             </a:r>
             <a:endParaRPr lang="ro-RO" sz="1200">
               <a:latin typeface="Cambria" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3906,7 +3928,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
